--- a/D_e-나라지표_인기지표_조사/Result/e-나라지표_인기지표_목록_20241126.xlsx
+++ b/D_e-나라지표_인기지표_조사/Result/e-나라지표_인기지표_목록_20241126.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA_Trainingbook\Session4_실습2\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\D_e-나라지표_인기지표_조사\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BDB2BF-5811-426E-978A-6C4286583C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5931F4B8-8507-4D7D-9505-DFCA52465F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="3285" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목록" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>취업자 수/실업률 추이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자물가지수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,12 +120,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -411,9 +412,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -429,28 +432,34 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
